--- a/natmiOut/OldD4/LR-pairs_lrc2p/Adam9-Itga3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Adam9-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.948149555686751</v>
+        <v>10.070632</v>
       </c>
       <c r="H2">
-        <v>8.948149555686751</v>
+        <v>30.211896</v>
       </c>
       <c r="I2">
-        <v>0.07154994732138036</v>
+        <v>0.07634150103324112</v>
       </c>
       <c r="J2">
-        <v>0.07154994732138036</v>
+        <v>0.08026042296304617</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.570384905948909</v>
+        <v>11.451657</v>
       </c>
       <c r="N2">
-        <v>8.570384905948909</v>
+        <v>34.354971</v>
       </c>
       <c r="O2">
-        <v>0.6994370645599617</v>
+        <v>0.6845114669615147</v>
       </c>
       <c r="P2">
-        <v>0.6994370645599617</v>
+        <v>0.752353342656931</v>
       </c>
       <c r="Q2">
-        <v>76.68908588823118</v>
+        <v>115.325423437224</v>
       </c>
       <c r="R2">
-        <v>76.68908588823118</v>
+        <v>1037.928810935016</v>
       </c>
       <c r="S2">
-        <v>0.05004468512388617</v>
+        <v>0.05225663286230787</v>
       </c>
       <c r="T2">
-        <v>0.05004468512388617</v>
+        <v>0.06038419749930689</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.948149555686751</v>
+        <v>10.070632</v>
       </c>
       <c r="H3">
-        <v>8.948149555686751</v>
+        <v>30.211896</v>
       </c>
       <c r="I3">
-        <v>0.07154994732138036</v>
+        <v>0.07634150103324112</v>
       </c>
       <c r="J3">
-        <v>0.07154994732138036</v>
+        <v>0.08026042296304617</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.486649506573794</v>
+        <v>0.5240143333333332</v>
       </c>
       <c r="N3">
-        <v>0.486649506573794</v>
+        <v>1.572043</v>
       </c>
       <c r="O3">
-        <v>0.03971591778932378</v>
+        <v>0.03132243831777883</v>
       </c>
       <c r="P3">
-        <v>0.03971591778932378</v>
+        <v>0.03442680262633404</v>
       </c>
       <c r="Q3">
-        <v>4.354612566023471</v>
+        <v>5.277155513725332</v>
       </c>
       <c r="R3">
-        <v>4.354612566023471</v>
+        <v>47.494399623528</v>
       </c>
       <c r="S3">
-        <v>0.002841671825646389</v>
+        <v>0.002391201957200344</v>
       </c>
       <c r="T3">
-        <v>0.002841671825646389</v>
+        <v>0.002763109740054879</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.948149555686751</v>
+        <v>10.070632</v>
       </c>
       <c r="H4">
-        <v>8.948149555686751</v>
+        <v>30.211896</v>
       </c>
       <c r="I4">
-        <v>0.07154994732138036</v>
+        <v>0.07634150103324112</v>
       </c>
       <c r="J4">
-        <v>0.07154994732138036</v>
+        <v>0.08026042296304617</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.19622658865231</v>
+        <v>0.123396</v>
       </c>
       <c r="N4">
-        <v>3.19622658865231</v>
+        <v>0.370188</v>
       </c>
       <c r="O4">
-        <v>0.2608470176507144</v>
+        <v>0.007375873812600488</v>
       </c>
       <c r="P4">
-        <v>0.2608470176507144</v>
+        <v>0.008106896064953279</v>
       </c>
       <c r="Q4">
-        <v>28.60031352912334</v>
+        <v>1.242675706272</v>
       </c>
       <c r="R4">
-        <v>28.60031352912334</v>
+        <v>11.184081356448</v>
       </c>
       <c r="S4">
-        <v>0.01866359037184779</v>
+        <v>0.0005630852782856963</v>
       </c>
       <c r="T4">
-        <v>0.01866359037184779</v>
+        <v>0.0006506629070906048</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.0235072093291</v>
+        <v>10.070632</v>
       </c>
       <c r="H5">
-        <v>39.0235072093291</v>
+        <v>30.211896</v>
       </c>
       <c r="I5">
-        <v>0.3120343337744664</v>
+        <v>0.07634150103324112</v>
       </c>
       <c r="J5">
-        <v>0.3120343337744664</v>
+        <v>0.08026042296304617</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>8.570384905948909</v>
+        <v>0.104921</v>
       </c>
       <c r="N5">
-        <v>8.570384905948909</v>
+        <v>0.314763</v>
       </c>
       <c r="O5">
-        <v>0.6994370645599617</v>
+        <v>0.006271548966675223</v>
       </c>
       <c r="P5">
-        <v>0.6994370645599617</v>
+        <v>0.006893121673562862</v>
       </c>
       <c r="Q5">
-        <v>334.4464771640226</v>
+        <v>1.056620780072</v>
       </c>
       <c r="R5">
-        <v>334.4464771640226</v>
+        <v>9.509587020648</v>
       </c>
       <c r="S5">
-        <v>0.2182483784571361</v>
+        <v>0.0004787794619194588</v>
       </c>
       <c r="T5">
-        <v>0.2182483784571361</v>
+        <v>0.000553244861055896</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.0235072093291</v>
+        <v>10.070632</v>
       </c>
       <c r="H6">
-        <v>39.0235072093291</v>
+        <v>30.211896</v>
       </c>
       <c r="I6">
-        <v>0.3120343337744664</v>
+        <v>0.07634150103324112</v>
       </c>
       <c r="J6">
-        <v>0.3120343337744664</v>
+        <v>0.08026042296304617</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.486649506573794</v>
+        <v>4.525690500000001</v>
       </c>
       <c r="N6">
-        <v>0.486649506573794</v>
+        <v>9.051381000000001</v>
       </c>
       <c r="O6">
-        <v>0.03971591778932378</v>
+        <v>0.2705186719414309</v>
       </c>
       <c r="P6">
-        <v>0.03971591778932378</v>
+        <v>0.1982198369782188</v>
       </c>
       <c r="Q6">
-        <v>18.9907705281989</v>
+        <v>45.576563571396</v>
       </c>
       <c r="R6">
-        <v>18.9907705281989</v>
+        <v>273.459381428376</v>
       </c>
       <c r="S6">
-        <v>0.01239272994763312</v>
+        <v>0.02065180147352777</v>
       </c>
       <c r="T6">
-        <v>0.01239272994763312</v>
+        <v>0.0159092079555379</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.0235072093291</v>
+        <v>42.14988333333334</v>
       </c>
       <c r="H7">
-        <v>39.0235072093291</v>
+        <v>126.44965</v>
       </c>
       <c r="I7">
-        <v>0.3120343337744664</v>
+        <v>0.3195216905992255</v>
       </c>
       <c r="J7">
-        <v>0.3120343337744664</v>
+        <v>0.3359240476840365</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.19622658865231</v>
+        <v>11.451657</v>
       </c>
       <c r="N7">
-        <v>3.19622658865231</v>
+        <v>34.354971</v>
       </c>
       <c r="O7">
-        <v>0.2608470176507144</v>
+        <v>0.6845114669615147</v>
       </c>
       <c r="P7">
-        <v>0.2608470176507144</v>
+        <v>0.752353342656931</v>
       </c>
       <c r="Q7">
-        <v>124.7279713249228</v>
+        <v>482.68600652335</v>
       </c>
       <c r="R7">
-        <v>124.7279713249228</v>
+        <v>4344.17405871015</v>
       </c>
       <c r="S7">
-        <v>0.08139322536969716</v>
+        <v>0.2187162611580991</v>
       </c>
       <c r="T7">
-        <v>0.08139322536969716</v>
+        <v>0.2527335801539312</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.8273493604339</v>
+        <v>42.14988333333334</v>
       </c>
       <c r="H8">
-        <v>25.8273493604339</v>
+        <v>126.44965</v>
       </c>
       <c r="I8">
-        <v>0.2065170541338931</v>
+        <v>0.3195216905992255</v>
       </c>
       <c r="J8">
-        <v>0.2065170541338931</v>
+        <v>0.3359240476840365</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.570384905948909</v>
+        <v>0.5240143333333332</v>
       </c>
       <c r="N8">
-        <v>8.570384905948909</v>
+        <v>1.572043</v>
       </c>
       <c r="O8">
-        <v>0.6994370645599617</v>
+        <v>0.03132243831777883</v>
       </c>
       <c r="P8">
-        <v>0.6994370645599617</v>
+        <v>0.03442680262633404</v>
       </c>
       <c r="Q8">
-        <v>221.3503251193319</v>
+        <v>22.08714301499444</v>
       </c>
       <c r="R8">
-        <v>221.3503251193319</v>
+        <v>198.78428713495</v>
       </c>
       <c r="S8">
-        <v>0.1444456821249809</v>
+        <v>0.01000819844498665</v>
       </c>
       <c r="T8">
-        <v>0.1444456821249809</v>
+        <v>0.01156479088705755</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.8273493604339</v>
+        <v>42.14988333333334</v>
       </c>
       <c r="H9">
-        <v>25.8273493604339</v>
+        <v>126.44965</v>
       </c>
       <c r="I9">
-        <v>0.2065170541338931</v>
+        <v>0.3195216905992255</v>
       </c>
       <c r="J9">
-        <v>0.2065170541338931</v>
+        <v>0.3359240476840365</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.486649506573794</v>
+        <v>0.123396</v>
       </c>
       <c r="N9">
-        <v>0.486649506573794</v>
+        <v>0.370188</v>
       </c>
       <c r="O9">
-        <v>0.03971591778932378</v>
+        <v>0.007375873812600488</v>
       </c>
       <c r="P9">
-        <v>0.03971591778932378</v>
+        <v>0.008106896064953279</v>
       </c>
       <c r="Q9">
-        <v>12.56886682236415</v>
+        <v>5.201127003800001</v>
       </c>
       <c r="R9">
-        <v>12.56886682236415</v>
+        <v>46.8101430342</v>
       </c>
       <c r="S9">
-        <v>0.008202014344075026</v>
+        <v>0.002356751670248663</v>
       </c>
       <c r="T9">
-        <v>0.008202014344075026</v>
+        <v>0.002723301340292893</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.8273493604339</v>
+        <v>42.14988333333334</v>
       </c>
       <c r="H10">
-        <v>25.8273493604339</v>
+        <v>126.44965</v>
       </c>
       <c r="I10">
-        <v>0.2065170541338931</v>
+        <v>0.3195216905992255</v>
       </c>
       <c r="J10">
-        <v>0.2065170541338931</v>
+        <v>0.3359240476840365</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.19622658865231</v>
+        <v>0.104921</v>
       </c>
       <c r="N10">
-        <v>3.19622658865231</v>
+        <v>0.314763</v>
       </c>
       <c r="O10">
-        <v>0.2608470176507144</v>
+        <v>0.006271548966675223</v>
       </c>
       <c r="P10">
-        <v>0.2608470176507144</v>
+        <v>0.006893121673562862</v>
       </c>
       <c r="Q10">
-        <v>82.55006074023106</v>
+        <v>4.422407909216667</v>
       </c>
       <c r="R10">
-        <v>82.55006074023106</v>
+        <v>39.80167118295</v>
       </c>
       <c r="S10">
-        <v>0.05386935766483716</v>
+        <v>0.002003895928507893</v>
       </c>
       <c r="T10">
-        <v>0.05386935766483716</v>
+        <v>0.002315565333761796</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>33.249045401321</v>
+        <v>42.14988333333334</v>
       </c>
       <c r="H11">
-        <v>33.249045401321</v>
+        <v>126.44965</v>
       </c>
       <c r="I11">
-        <v>0.2658613864403745</v>
+        <v>0.3195216905992255</v>
       </c>
       <c r="J11">
-        <v>0.2658613864403745</v>
+        <v>0.3359240476840365</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.570384905948909</v>
+        <v>4.525690500000001</v>
       </c>
       <c r="N11">
-        <v>8.570384905948909</v>
+        <v>9.051381000000001</v>
       </c>
       <c r="O11">
-        <v>0.6994370645599617</v>
+        <v>0.2705186719414309</v>
       </c>
       <c r="P11">
-        <v>0.6994370645599617</v>
+        <v>0.1982198369782188</v>
       </c>
       <c r="Q11">
-        <v>284.9571168446915</v>
+        <v>190.757326577775</v>
       </c>
       <c r="R11">
-        <v>284.9571168446915</v>
+        <v>1144.54395946665</v>
       </c>
       <c r="S11">
-        <v>0.1859533077116972</v>
+        <v>0.08643658339738328</v>
       </c>
       <c r="T11">
-        <v>0.1859533077116972</v>
+        <v>0.06658680996899313</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>33.249045401321</v>
+        <v>26.941003</v>
       </c>
       <c r="H12">
-        <v>33.249045401321</v>
+        <v>80.823009</v>
       </c>
       <c r="I12">
-        <v>0.2658613864403745</v>
+        <v>0.2042291495073052</v>
       </c>
       <c r="J12">
-        <v>0.2658613864403745</v>
+        <v>0.2147130682392819</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.486649506573794</v>
+        <v>11.451657</v>
       </c>
       <c r="N12">
-        <v>0.486649506573794</v>
+        <v>34.354971</v>
       </c>
       <c r="O12">
-        <v>0.03971591778932378</v>
+        <v>0.6845114669615147</v>
       </c>
       <c r="P12">
-        <v>0.03971591778932378</v>
+        <v>0.752353342656931</v>
       </c>
       <c r="Q12">
-        <v>16.18063153860254</v>
+        <v>308.519125591971</v>
       </c>
       <c r="R12">
-        <v>16.18063153860254</v>
+        <v>2776.672130327739</v>
       </c>
       <c r="S12">
-        <v>0.01055892896722155</v>
+        <v>0.139797194725548</v>
       </c>
       <c r="T12">
-        <v>0.01055892896722155</v>
+        <v>0.1615400946019495</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>33.249045401321</v>
+        <v>26.941003</v>
       </c>
       <c r="H13">
-        <v>33.249045401321</v>
+        <v>80.823009</v>
       </c>
       <c r="I13">
-        <v>0.2658613864403745</v>
+        <v>0.2042291495073052</v>
       </c>
       <c r="J13">
-        <v>0.2658613864403745</v>
+        <v>0.2147130682392819</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.19622658865231</v>
+        <v>0.5240143333333332</v>
       </c>
       <c r="N13">
-        <v>3.19622658865231</v>
+        <v>1.572043</v>
       </c>
       <c r="O13">
-        <v>0.2608470176507144</v>
+        <v>0.03132243831777883</v>
       </c>
       <c r="P13">
-        <v>0.2608470176507144</v>
+        <v>0.03442680262633404</v>
       </c>
       <c r="Q13">
-        <v>106.27148295901</v>
+        <v>14.11747172637633</v>
       </c>
       <c r="R13">
-        <v>106.27148295901</v>
+        <v>127.057245537387</v>
       </c>
       <c r="S13">
-        <v>0.06934914976145579</v>
+        <v>0.006396954938134997</v>
       </c>
       <c r="T13">
-        <v>0.06934914976145579</v>
+        <v>0.007391884421568349</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.013529797593</v>
+        <v>26.941003</v>
       </c>
       <c r="H14">
-        <v>18.013529797593</v>
+        <v>80.823009</v>
       </c>
       <c r="I14">
-        <v>0.1440372783298856</v>
+        <v>0.2042291495073052</v>
       </c>
       <c r="J14">
-        <v>0.1440372783298856</v>
+        <v>0.2147130682392819</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>8.570384905948909</v>
+        <v>0.123396</v>
       </c>
       <c r="N14">
-        <v>8.570384905948909</v>
+        <v>0.370188</v>
       </c>
       <c r="O14">
-        <v>0.6994370645599617</v>
+        <v>0.007375873812600488</v>
       </c>
       <c r="P14">
-        <v>0.6994370645599617</v>
+        <v>0.008106896064953279</v>
       </c>
       <c r="Q14">
-        <v>154.382883880152</v>
+        <v>3.324412006188</v>
       </c>
       <c r="R14">
-        <v>154.382883880152</v>
+        <v>29.919708055692</v>
       </c>
       <c r="S14">
-        <v>0.1007450111422614</v>
+        <v>0.001506368435620603</v>
       </c>
       <c r="T14">
-        <v>0.1007450111422614</v>
+        <v>0.001740656528003079</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.013529797593</v>
+        <v>26.941003</v>
       </c>
       <c r="H15">
-        <v>18.013529797593</v>
+        <v>80.823009</v>
       </c>
       <c r="I15">
-        <v>0.1440372783298856</v>
+        <v>0.2042291495073052</v>
       </c>
       <c r="J15">
-        <v>0.1440372783298856</v>
+        <v>0.2147130682392819</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.486649506573794</v>
+        <v>0.104921</v>
       </c>
       <c r="N15">
-        <v>0.486649506573794</v>
+        <v>0.314763</v>
       </c>
       <c r="O15">
-        <v>0.03971591778932378</v>
+        <v>0.006271548966675223</v>
       </c>
       <c r="P15">
-        <v>0.03971591778932378</v>
+        <v>0.006893121673562862</v>
       </c>
       <c r="Q15">
-        <v>8.766275387650969</v>
+        <v>2.826676975763</v>
       </c>
       <c r="R15">
-        <v>8.766275387650969</v>
+        <v>25.440092781867</v>
       </c>
       <c r="S15">
-        <v>0.005720572704747683</v>
+        <v>0.0012808331115575</v>
       </c>
       <c r="T15">
-        <v>0.005720572704747683</v>
+        <v>0.001480043304277376</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.013529797593</v>
+        <v>26.941003</v>
       </c>
       <c r="H16">
-        <v>18.013529797593</v>
+        <v>80.823009</v>
       </c>
       <c r="I16">
-        <v>0.1440372783298856</v>
+        <v>0.2042291495073052</v>
       </c>
       <c r="J16">
-        <v>0.1440372783298856</v>
+        <v>0.2147130682392819</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.19622658865231</v>
+        <v>4.525690500000001</v>
       </c>
       <c r="N16">
-        <v>3.19622658865231</v>
+        <v>9.051381000000001</v>
       </c>
       <c r="O16">
-        <v>0.2608470176507144</v>
+        <v>0.2705186719414309</v>
       </c>
       <c r="P16">
-        <v>0.2608470176507144</v>
+        <v>0.1982198369782188</v>
       </c>
       <c r="Q16">
-        <v>57.57532289454741</v>
+        <v>121.9266413375715</v>
       </c>
       <c r="R16">
-        <v>57.57532289454741</v>
+        <v>731.5598480254291</v>
       </c>
       <c r="S16">
-        <v>0.03757169448287653</v>
+        <v>0.05524779829644415</v>
       </c>
       <c r="T16">
-        <v>0.03757169448287653</v>
+        <v>0.04256038938348363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>33.430692</v>
+      </c>
+      <c r="H17">
+        <v>100.292076</v>
+      </c>
+      <c r="I17">
+        <v>0.2534249298216801</v>
+      </c>
+      <c r="J17">
+        <v>0.2664342694547198</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>11.451657</v>
+      </c>
+      <c r="N17">
+        <v>34.354971</v>
+      </c>
+      <c r="O17">
+        <v>0.6845114669615147</v>
+      </c>
+      <c r="P17">
+        <v>0.752353342656931</v>
+      </c>
+      <c r="Q17">
+        <v>382.8368180566439</v>
+      </c>
+      <c r="R17">
+        <v>3445.531362509796</v>
+      </c>
+      <c r="S17">
+        <v>0.1734722704768571</v>
+      </c>
+      <c r="T17">
+        <v>0.2004527132226159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>33.430692</v>
+      </c>
+      <c r="H18">
+        <v>100.292076</v>
+      </c>
+      <c r="I18">
+        <v>0.2534249298216801</v>
+      </c>
+      <c r="J18">
+        <v>0.2664342694547198</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.5240143333333332</v>
+      </c>
+      <c r="N18">
+        <v>1.572043</v>
+      </c>
+      <c r="O18">
+        <v>0.03132243831777883</v>
+      </c>
+      <c r="P18">
+        <v>0.03442680262633404</v>
+      </c>
+      <c r="Q18">
+        <v>17.518161781252</v>
+      </c>
+      <c r="R18">
+        <v>157.663456031268</v>
+      </c>
+      <c r="S18">
+        <v>0.007937886732527002</v>
+      </c>
+      <c r="T18">
+        <v>0.009172480007409139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>33.430692</v>
+      </c>
+      <c r="H19">
+        <v>100.292076</v>
+      </c>
+      <c r="I19">
+        <v>0.2534249298216801</v>
+      </c>
+      <c r="J19">
+        <v>0.2664342694547198</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.123396</v>
+      </c>
+      <c r="N19">
+        <v>0.370188</v>
+      </c>
+      <c r="O19">
+        <v>0.007375873812600488</v>
+      </c>
+      <c r="P19">
+        <v>0.008106896064953279</v>
+      </c>
+      <c r="Q19">
+        <v>4.125213670032</v>
+      </c>
+      <c r="R19">
+        <v>37.126923030288</v>
+      </c>
+      <c r="S19">
+        <v>0.001869230303331847</v>
+      </c>
+      <c r="T19">
+        <v>0.00215995493061117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>33.430692</v>
+      </c>
+      <c r="H20">
+        <v>100.292076</v>
+      </c>
+      <c r="I20">
+        <v>0.2534249298216801</v>
+      </c>
+      <c r="J20">
+        <v>0.2664342694547198</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.104921</v>
+      </c>
+      <c r="N20">
+        <v>0.314763</v>
+      </c>
+      <c r="O20">
+        <v>0.006271548966675223</v>
+      </c>
+      <c r="P20">
+        <v>0.006893121673562862</v>
+      </c>
+      <c r="Q20">
+        <v>3.507581635332</v>
+      </c>
+      <c r="R20">
+        <v>31.568234717988</v>
+      </c>
+      <c r="S20">
+        <v>0.001589366856752898</v>
+      </c>
+      <c r="T20">
+        <v>0.001836563837358217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>33.430692</v>
+      </c>
+      <c r="H21">
+        <v>100.292076</v>
+      </c>
+      <c r="I21">
+        <v>0.2534249298216801</v>
+      </c>
+      <c r="J21">
+        <v>0.2664342694547198</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.525690500000001</v>
+      </c>
+      <c r="N21">
+        <v>9.051381000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.2705186719414309</v>
+      </c>
+      <c r="P21">
+        <v>0.1982198369782188</v>
+      </c>
+      <c r="Q21">
+        <v>151.296965192826</v>
+      </c>
+      <c r="R21">
+        <v>907.781791156956</v>
+      </c>
+      <c r="S21">
+        <v>0.06855617545221122</v>
+      </c>
+      <c r="T21">
+        <v>0.0528125574567254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>19.3233515</v>
+      </c>
+      <c r="H22">
+        <v>38.646703</v>
+      </c>
+      <c r="I22">
+        <v>0.1464827290385481</v>
+      </c>
+      <c r="J22">
+        <v>0.1026681916589156</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>11.451657</v>
+      </c>
+      <c r="N22">
+        <v>34.354971</v>
+      </c>
+      <c r="O22">
+        <v>0.6845114669615147</v>
+      </c>
+      <c r="P22">
+        <v>0.752353342656931</v>
+      </c>
+      <c r="Q22">
+        <v>221.2843934684355</v>
+      </c>
+      <c r="R22">
+        <v>1327.706360810613</v>
+      </c>
+      <c r="S22">
+        <v>0.1002691077387026</v>
+      </c>
+      <c r="T22">
+        <v>0.07724275717912758</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>19.3233515</v>
+      </c>
+      <c r="H23">
+        <v>38.646703</v>
+      </c>
+      <c r="I23">
+        <v>0.1464827290385481</v>
+      </c>
+      <c r="J23">
+        <v>0.1026681916589156</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.5240143333333332</v>
+      </c>
+      <c r="N23">
+        <v>1.572043</v>
+      </c>
+      <c r="O23">
+        <v>0.03132243831777883</v>
+      </c>
+      <c r="P23">
+        <v>0.03442680262633404</v>
+      </c>
+      <c r="Q23">
+        <v>10.12571315403817</v>
+      </c>
+      <c r="R23">
+        <v>60.754278924229</v>
+      </c>
+      <c r="S23">
+        <v>0.004588196244929832</v>
+      </c>
+      <c r="T23">
+        <v>0.003534537570244122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>19.3233515</v>
+      </c>
+      <c r="H24">
+        <v>38.646703</v>
+      </c>
+      <c r="I24">
+        <v>0.1464827290385481</v>
+      </c>
+      <c r="J24">
+        <v>0.1026681916589156</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.123396</v>
+      </c>
+      <c r="N24">
+        <v>0.370188</v>
+      </c>
+      <c r="O24">
+        <v>0.007375873812600488</v>
+      </c>
+      <c r="P24">
+        <v>0.008106896064953279</v>
+      </c>
+      <c r="Q24">
+        <v>2.384424281694</v>
+      </c>
+      <c r="R24">
+        <v>14.306545690164</v>
+      </c>
+      <c r="S24">
+        <v>0.00108043812511368</v>
+      </c>
+      <c r="T24">
+        <v>0.000832320358955532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>19.3233515</v>
+      </c>
+      <c r="H25">
+        <v>38.646703</v>
+      </c>
+      <c r="I25">
+        <v>0.1464827290385481</v>
+      </c>
+      <c r="J25">
+        <v>0.1026681916589156</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.104921</v>
+      </c>
+      <c r="N25">
+        <v>0.314763</v>
+      </c>
+      <c r="O25">
+        <v>0.006271548966675223</v>
+      </c>
+      <c r="P25">
+        <v>0.006893121673562862</v>
+      </c>
+      <c r="Q25">
+        <v>2.0274253627315</v>
+      </c>
+      <c r="R25">
+        <v>12.164552176389</v>
+      </c>
+      <c r="S25">
+        <v>0.0009186736079374729</v>
+      </c>
+      <c r="T25">
+        <v>0.000707704337109577</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>19.3233515</v>
+      </c>
+      <c r="H26">
+        <v>38.646703</v>
+      </c>
+      <c r="I26">
+        <v>0.1464827290385481</v>
+      </c>
+      <c r="J26">
+        <v>0.1026681916589156</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.525690500000001</v>
+      </c>
+      <c r="N26">
+        <v>9.051381000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.2705186719414309</v>
+      </c>
+      <c r="P26">
+        <v>0.1982198369782188</v>
+      </c>
+      <c r="Q26">
+        <v>87.45150831171077</v>
+      </c>
+      <c r="R26">
+        <v>349.8060332468431</v>
+      </c>
+      <c r="S26">
+        <v>0.0396263133218645</v>
+      </c>
+      <c r="T26">
+        <v>0.02035087221347878</v>
       </c>
     </row>
   </sheetData>
